--- a/manual test cases/Shopzier_CheckOut_Divyansh.xlsx
+++ b/manual test cases/Shopzier_CheckOut_Divyansh.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\manual test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0FDD66-8E9C-487A-B32B-A4DC344A286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF5894-388F-43BA-A755-6DE3D465B139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2A8E1874-D545-4476-BDDE-A5F2CE78741E}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="2" r:id="rId1"/>
-    <sheet name="Test Cases" sheetId="3" r:id="rId2"/>
+    <sheet name="CheckoutTCs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -806,7 +806,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
